--- a/Olah Data Pelanggan/Bulan 4 - 7 - 2022/CUSTOMER BULAN 4-7.xlsx
+++ b/Olah Data Pelanggan/Bulan 4 - 7 - 2022/CUSTOMER BULAN 4-7.xlsx
@@ -10969,8 +10969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1780"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
